--- a/sources/Tsakhur_data.xlsx
+++ b/sources/Tsakhur_data.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1174" uniqueCount="730">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1125" uniqueCount="704">
   <si>
     <t>language_no</t>
   </si>
@@ -1815,268 +1815,13 @@
     <t>ряд одновалентных выражений ‘быть/становиться больным’</t>
   </si>
   <si>
-    <t>Также saq’aq’◦anas &lt;кто: nom; чего: supel || s&gt;</t>
-  </si>
-  <si>
-    <t>CV</t>
-  </si>
-  <si>
-    <t>также ‘поднимать’</t>
-  </si>
-  <si>
-    <t>‘встречать’</t>
-  </si>
-  <si>
-    <t>также ‘побеждать (в поединке). Еще есть heX̅e-xes &lt;кто || что: nom&gt; также ‘превосходить’, ‘быть больше других’; в словаре дана рамка с одним актантом, в грамматике примеров нет</t>
-  </si>
-  <si>
-    <t>также ‘постоянно выходить’ – с несколько отличными формами в некоторых аспектах</t>
-  </si>
-  <si>
-    <t>также ‘вести машину’</t>
-  </si>
-  <si>
-    <t>также ‘наклонять’</t>
-  </si>
-  <si>
-    <t>также ‘сохранять, спасать’. Также aq̅as &lt;кто: erg; что: nom; за что: contel&gt; также ‘ловить’ (43); также ‘загораживать’ (&lt;кто: erg; что: nom&gt;). haq̅as &lt;кто: erg; что: nom&gt; (неодуш.), также ‘таскать на спине’; также ‘растаскивать’</t>
-  </si>
-  <si>
-    <t>CV, также ‘обгонять, опережать’; = ‘вперёд становиться’</t>
-  </si>
-  <si>
-    <t>также ‘задевать’; также ‘сталкиваться’ &lt;кто: nom; с кем || с чем: contess&gt;. iRikar-(h)a?as &lt;кто: erg; кого: nom&gt; также ‘шевелить’, ‘задевать’</t>
-  </si>
-  <si>
-    <t>скорее ‘ругаться’, ‘ссориться'. sačaxaras &lt;кто: nom; с кем: comit&gt; также ‘цепляться’</t>
-  </si>
-  <si>
-    <t>|| &lt;кто: nom; что: s&gt; fikir hā?as &lt;кто: erg; что: atr&gt; = ‘мысль делать’</t>
-  </si>
-  <si>
     <t>генитивная стратегия с ixes ‘иметься’; в цах.-рус. этот же глагол переводится только как ‘стать, становиться (чем-то)’</t>
   </si>
   <si>
-    <t>также ‘находить’ (55). Также gixas &lt;кто: nom; куда: iness&gt; также ‘находить’ (55); также ‘оказываться’, ‘попадать’ (79), возможно, рамка приведена для последнего значения</t>
-  </si>
-  <si>
-    <t>много других значений, некоторые с другими рамками; исходно, видимо, ‘мазать’; требует более детального рассмотрения</t>
-  </si>
-  <si>
-    <t>|| &lt;кто: erg; кого: contall; чем: comit&gt;</t>
-  </si>
-  <si>
-    <t>также ‘держать’ (18);</t>
-  </si>
-  <si>
-    <t>‘ломаться-делать’</t>
-  </si>
-  <si>
-    <t>также ‘нравиться’ (58), ‘хотеть’; ‘быть нужным’ (&lt;что: nom&gt;)</t>
-  </si>
-  <si>
-    <t>также ‘стирать’</t>
-  </si>
-  <si>
-    <t>также ‘строить’</t>
-  </si>
-  <si>
-    <t>CV, ‘меры брать’</t>
-  </si>
-  <si>
-    <t>Также gixas &lt;кто: nom; куда: iness&gt; также ‘оказываться’; также ‘искать’ (39), ‘попадать’ (79), возможно, рамка приведена для последнего значения. Также t’abalj-(h)a?as &lt;кто: erg; кого || что: nom &gt; также ‘искать’</t>
-  </si>
-  <si>
-    <t>см. также 'любить' ik̅īkanas</t>
-  </si>
-  <si>
-    <t>CV, = ‘нужда есть’ см. также (58)</t>
-  </si>
-  <si>
-    <t>CV, = ‘в середину брать’</t>
-  </si>
-  <si>
     <t>в грамматике есть пример с ǯiwab qiles ‘слово отдавать’ в значении ‘отвечать’, но в словаре это трактуется как ‘обещать’</t>
   </si>
   <si>
-    <t>также ‘отвязывать’. Также ačmiš ha?as &lt;кто: erg; что: nom&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CV, также ‘растапливать’ </t>
-  </si>
-  <si>
-    <t>CV, Также k’elj aX◦as &lt;кто: dat; что: nom || S&gt;</t>
-  </si>
-  <si>
-    <t>CV,‘помощь делать’. Также kumag hiles &lt;кто: erg; кому: dat&gt; = ‘помощь давать’. Также kumag-xes &lt;кто (от кого): contel; кому: dat&gt; = ‘помощь становиться’</t>
-  </si>
-  <si>
-    <t>также ‘оказываться’; также ‘искать’ (39), ‘находить’ (55). Также getas  &lt;кто: erg; чем: nom; (в) кого: dat&gt; также ‘бить, избивать’</t>
-  </si>
-  <si>
-    <t>о человеке, в словаре перевод ‘родить’, также ‘создавать’. Также uXas &lt;кто: erg; кого: nom&gt;. Также īğaras &lt;кто: nom&gt; о животных, также ‘телиться’, одновалентный</t>
-  </si>
-  <si>
-    <t>CV,= ‘во сне видеть’</t>
-  </si>
-  <si>
-    <t>также, возможно, ‘драться’ (23). hiIǯat ha?as &lt;кто: erg; о чём: aobl + haIq’ē&gt; = ‘спор, ссору делать’; «комитативный участник» в рамке не указан</t>
-  </si>
-  <si>
-    <t>см. также (4); также ‘ударить’ (107)</t>
-  </si>
-  <si>
     <t>есть ‘сыпаться’, по идее, должен быть каузатив</t>
-  </si>
-  <si>
-    <t>‘идти’ + ha?as; также ‘убирать’</t>
-  </si>
-  <si>
-    <t>в словаре дана рамка с одним актантом; в грамматике примеров нет</t>
-  </si>
-  <si>
-    <t xml:space="preserve">также ‘стрелять’ (102); также есть k’et’as ‘ударять чем’ </t>
-  </si>
-  <si>
-    <t>также ‘изучать, учиться’</t>
-  </si>
-  <si>
-    <t>в словаре только значение ‘трогать, задевать, шевелить что’; см. однако примеры (9) и (11) в Тексте 8</t>
-  </si>
-  <si>
-    <t>&lt;кто: erg; что: nom&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кому: dat; чего || кого: nom&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: nom; на кого: contess&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: aff; что: nom || S&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: erg; на кого: supall&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: adall; кого || что: nom&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: nom; куда: all&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: nom; у кого: supall&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: nom; откуда: inel&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: erg; кого || что: nom&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: erg; кому: aff; что: nom || S&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: nom; кого || что: supel&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: nom; до кого || до чего: contess || comit&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: nom; с кем: comit&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;кто: nom; о ком || о чём: supel&gt; </t>
-  </si>
-  <si>
-    <t>&lt;кто: adel; что: nom || s&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто || что: nom; от кого || от чего: contel&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: erg; кого: nom&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: erg; кого || что: nom &gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: erg; на чём: nom&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: erg; что: nom; обо что || на что: supall &gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;кто: erg; кого: nom&gt; </t>
-  </si>
-  <si>
-    <t>&lt;кто: erg; что: nom; за что: contel&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: erg; что: nom&gt; (??)</t>
-  </si>
-  <si>
-    <t>&lt;кто: dat; кого || что: nom || s&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: erg; кого: dat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;что: nom; чем: erg&gt;</t>
-  </si>
-  <si>
-    <t>&lt;что: nom; кому: dat&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: dat; в чём: nom&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто || что: nom; где: iness&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: nom; что: el&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: dat; что: nom || S&gt;</t>
-  </si>
-  <si>
-    <t xml:space="preserve">&lt;кто: erg; кому: dat; (что делать: s)&gt; </t>
-  </si>
-  <si>
-    <t>&lt;кто: nom; что: supall&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: nom; куда: iness&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто || что: nom; к чему: contall || contess&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: nom; чему: supel || s&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: erg; что: contall&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: nom; на кого: all&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кому: aff; что: nom || S&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: nom; с кем: comit; в чём: supel || s&gt;</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>&lt;кто: nom&gt;</t>
-  </si>
-  <si>
-    <t>&lt;кто: erg; чем: nom; кого: dat&gt; || &lt;кто: erg; кого: nom; чем: comit&gt;</t>
-  </si>
-  <si>
-    <t>видимо, &lt;кто: erg; чем: nom&gt;</t>
   </si>
   <si>
     <r>
@@ -3098,214 +2843,208 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">&lt;кто: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>nom</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>; чего: supel || s&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">также ‘стрелять’: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;кто: erg; из чего: nom; во что: supall&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>in</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>j</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">ammiš-xes </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;кто: nom; во что: s || supall&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>только о духовых инструментах; также ‘петь’ (&lt;кто: nom&gt;); кроме этого даётся только hiwag</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>◦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>as ‘играть, гулять с кем’ &lt;кто: nom; с кем: comit&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">по примерам в грамматике; в словаре просто </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;что: nom&gt;. Также bikir-xes &lt;что: nom&gt; также ‘заканчиваться’; в словаре просто &lt;что: nom&gt;, в грамматике примеров нет</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>только hek’</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="subscript"/>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>◦</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">as </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;кто: nom</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve"> &gt;, также ‘играть на духовом инструменте’ (34)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>также ‘цепляться за, держаться за’ (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>&lt;кто: nom; за что: contall&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>ji</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>šon ha?as ‘разговаривать’ &lt;кто: erg&gt;; ‘рассказывать’ &lt;кто: erg; что: nom; кому: dat&gt;</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">inǯimiš-xes &lt;кто: nom&gt;; также ‘обижаться’; </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color indexed="8"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t>в словаре дана рамка с одним актантом; в грамматике примеров нет</t>
-    </r>
+    <t>? см. также (4); также ‘ударить’ (107)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: erg; что: nom&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кому: dat; чего || кого: nom&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: aff; что: nom || S&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: nom; куда: all&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: erg; кому: aff; что: nom || S&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: nom; с кем: comit&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: adel; что: nom || s&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: erg; кого: nom&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: erg; кого || что: nom &gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто || что: nom; где: iness&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: nom; что: el&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: nom; что: supall&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: nom; чему: supel || s&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: nom; на кого: all&gt;. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: nom; с кем: comit; в чём: supel || s&gt;. </t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: nom; чего: supel || s&gt;. Также saq’aq’◦anas &lt;кто: nom; чего: supel || s&gt;</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom&gt;. также ‘стрелять’: &lt;кто: erg; из чего: nom; во что: supall&gt;</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: nom; на кого: contess&gt;. CV</t>
+  </si>
+  <si>
+    <t>injammiš-xes &lt;кто: nom; во что: s || supall&gt;</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom&gt;. также ‘поднимать’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; на кого: supall&gt;. CV</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: adall; кого || что: nom&gt;. ‘встречать’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: nom; у кого: supall&gt;. также ‘побеждать (в поединке). Еще есть heX̅e-xes &lt;кто || что: nom&gt; также ‘превосходить’, ‘быть больше других’; в словаре дана рамка с одним актантом, в грамматике примеров нет</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: nom; откуда: inel&gt;. также ‘постоянно выходить’ – с несколько отличными формами в некоторых аспектах</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; кого || что: nom&gt;. также ‘вести машину’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom&gt;. также ‘наклонять’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom&gt;. также ‘сохранять, спасать’. Также aq̅as &lt;кто: erg; что: nom; за что: contel&gt; также ‘ловить’ (43); также ‘загораживать’ (&lt;кто: erg; что: nom&gt;). haq̅as &lt;кто: erg; что: nom&gt; (неодуш.), также ‘таскать на спине’; также ‘растаскивать’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: nom; кого || что: supel&gt;. CV, также ‘обгонять, опережать’; = ‘вперёд становиться’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: nom; до кого || до чего: contess || comit&gt;. также ‘задевать’; также ‘сталкиваться’ &lt;кто: nom; с кем || с чем: contess&gt;. iRikar-(h)a?as &lt;кто: erg; кого: nom&gt; также ‘шевелить’, ‘задевать’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: nom; с кем: comit&gt;. скорее ‘ругаться’, ‘ссориться'. sačaxaras &lt;кто: nom; с кем: comit&gt; также ‘цепляться’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: nom; о ком || о чём: supel&gt; . || &lt;кто: nom; что: s&gt; fikir hā?as &lt;кто: erg; что: atr&gt; = ‘мысль делать’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom&gt;. CV</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто || что: nom; от кого || от чего: contel&gt;. CV</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; на чём: nom&gt;. только о духовых инструментах; также ‘петь’ (&lt;кто: nom&gt;); кроме этого даётся только hiwag◦as ‘играть, гулять с кем’ &lt;кто: nom; с кем: comit&gt;</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; кого || что: nom &gt;. также ‘находить’ (55). Также gixas &lt;кто: nom; куда: iness&gt; также ‘находить’ (55); также ‘оказываться’, ‘попадать’ (79), возможно, рамка приведена для последнего значения</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom; обо что || на что: supall &gt;. много других значений, некоторые с другими рамками; исходно, видимо, ‘мазать’; требует более детального рассмотрения</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; кого: nom&gt; . || &lt;кто: erg; кого: contall; чем: comit&gt;</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom; за что: contel&gt;. также ‘держать’ (18);</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom&gt; (??). ‘ломаться-делать’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: dat; кого || что: nom || s&gt;. также ‘нравиться’ (58), ‘хотеть’; ‘быть нужным’ (&lt;что: nom&gt;)</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom&gt;. также ‘стирать’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom&gt;. также ‘строить’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; кого: dat&gt;. CV, ‘меры брать’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;что: nom; чем: erg&gt;. по примерам в грамматике; в словаре просто &lt;что: nom&gt;. Также bikir-xes &lt;что: nom&gt; также ‘заканчиваться’; в словаре просто &lt;что: nom&gt;, в грамматике примеров нет</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: adall; кого || что: nom&gt;. Также gixas &lt;кто: nom; куда: iness&gt; также ‘оказываться’; также ‘искать’ (39), ‘попадать’ (79), возможно, рамка приведена для последнего значения. Также t’abalj-(h)a?as &lt;кто: erg; кого || что: nom &gt; также ‘искать’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;что: nom; кому: dat&gt;. см. также 'любить' ik̅īkanas</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: dat; в чём: nom&gt;. CV, = ‘нужда есть’ см. также (58)</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom&gt;. CV, = ‘в середину брать’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom&gt;. также ‘отвязывать’. Также ačmiš ha?as &lt;кто: erg; что: nom&gt;</t>
+  </si>
+  <si>
+    <t>только hek’◦as &lt;кто: nom &gt;, также ‘играть на духовом инструменте’ (34)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: erg; что: nom&gt;. CV, также ‘растапливать’ </t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: dat; что: nom || S&gt;. CV, Также k’elj aX◦as &lt;кто: dat; что: nom || S&gt;</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; кому: dat; (что делать: s)&gt; . CV,‘помощь делать’. Также kumag hiles &lt;кто: erg; кому: dat&gt; = ‘помощь давать’. Также kumag-xes &lt;кто (от кого): contel; кому: dat&gt; = ‘помощь становиться’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: nom; куда: iness&gt;. также ‘оказываться’; также ‘искать’ (39), ‘находить’ (55). Также getas  &lt;кто: erg; чем: nom; (в) кого: dat&gt; также ‘бить, избивать’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто || что: nom; к чему: contall || contess&gt;. также ‘цепляться за, держаться за’ (&lt;кто: nom; за что: contall&gt;)</t>
+  </si>
+  <si>
+    <t>jišon ha?as ‘разговаривать’ &lt;кто: erg&gt;; ‘рассказывать’ &lt;кто: erg; что: nom; кому: dat&gt;</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom&gt;. о человеке, в словаре перевод ‘родить’, также ‘создавать’. Также uXas &lt;кто: erg; кого: nom&gt;. Также īğaras &lt;кто: nom&gt; о животных, также ‘телиться’, одновалентный</t>
+  </si>
+  <si>
+    <t>inǯimiš-xes &lt;кто: nom&gt;; также ‘обижаться’; в словаре дана рамка с одним актантом; в грамматике примеров нет</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: contall&gt;. CV</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кому: aff; что: nom || S&gt;. CV,= ‘во сне видеть’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: nom; с кем: comit&gt;. также, возможно, ‘драться’ (23). hiIǯat ha?as &lt;кто: erg; о чём: aobl + haIq’ē&gt; = ‘спор, ссору делать’; «комитативный участник» в рамке не указан</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom&gt;. ‘идти’ + ha?as; также ‘убирать’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: nom&gt;. в словаре дана рамка с одним актантом; в грамматике примеров нет</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Argument frame in Kibrik =&lt;кто: erg; чем: nom; кого: dat&gt; || &lt;кто: erg; кого: nom; чем: comit&gt;. также ‘стрелять’ (102); также есть k’et’as ‘ударять чем’ </t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; кого: dat&gt;. CV</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =&lt;кто: erg; что: nom&gt;. также ‘изучать, учиться’</t>
+  </si>
+  <si>
+    <t>Argument frame in Kibrik =видимо, &lt;кто: erg; чем: nom&gt;. в словаре только значение ‘трогать, задевать, шевелить что’; см. однако примеры (9) и (11) в Тексте 8</t>
   </si>
 </sst>
 </file>
@@ -3780,8 +3519,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3898,15 +3637,15 @@
       <c r="J2" s="9"/>
       <c r="K2" s="9"/>
       <c r="L2" s="14"/>
-      <c r="M2" s="14" t="s">
-        <v>595</v>
-      </c>
+      <c r="M2" s="14"/>
       <c r="N2" s="5"/>
       <c r="O2" s="5"/>
       <c r="P2" s="7"/>
       <c r="Q2" s="7"/>
       <c r="R2" s="7"/>
-      <c r="S2" s="9"/>
+      <c r="S2" s="9" t="s">
+        <v>595</v>
+      </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A3" s="3">
@@ -3939,15 +3678,15 @@
       <c r="J3" s="9"/>
       <c r="K3" s="9"/>
       <c r="L3" s="14"/>
-      <c r="M3" s="14" t="s">
-        <v>596</v>
-      </c>
+      <c r="M3" s="14"/>
       <c r="N3" s="5"/>
       <c r="O3" s="5"/>
       <c r="P3" s="7"/>
       <c r="Q3" s="7"/>
       <c r="R3" s="7"/>
-      <c r="S3" s="9"/>
+      <c r="S3" s="9" t="s">
+        <v>596</v>
+      </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A4" s="3">
@@ -3986,16 +3725,14 @@
       <c r="L4" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="M4" s="15" t="s">
-        <v>597</v>
-      </c>
+      <c r="M4" s="15"/>
       <c r="N4" s="5"/>
       <c r="O4" s="5"/>
       <c r="P4" s="7"/>
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
       <c r="S4" s="10" t="s">
-        <v>721</v>
+        <v>652</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -4033,16 +3770,14 @@
       <c r="L5" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M5" s="15" t="s">
-        <v>722</v>
-      </c>
+      <c r="M5" s="15"/>
       <c r="N5" s="5"/>
       <c r="O5" s="5"/>
       <c r="P5" s="7"/>
       <c r="Q5" s="7"/>
       <c r="R5" s="7"/>
-      <c r="S5" s="9" t="s">
-        <v>640</v>
+      <c r="S5" s="10" t="s">
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -4088,8 +3823,8 @@
       <c r="P6" s="7"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="7"/>
-      <c r="S6" s="9" t="s">
-        <v>641</v>
+      <c r="S6" s="10" t="s">
+        <v>638</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -4115,7 +3850,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="9" t="s">
-        <v>685</v>
+        <v>600</v>
       </c>
       <c r="I7" s="9" t="s">
         <v>537</v>
@@ -4123,19 +3858,17 @@
       <c r="J7" s="9"/>
       <c r="K7" s="9"/>
       <c r="L7" s="14"/>
-      <c r="M7" s="16" t="s">
-        <v>598</v>
-      </c>
+      <c r="M7" s="16"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="7"/>
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
-      <c r="S7" s="9" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="S7" s="10" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A8" s="3">
         <v>5</v>
       </c>
@@ -4166,15 +3899,15 @@
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
       <c r="L8" s="14"/>
-      <c r="M8" s="15" t="s">
-        <v>723</v>
-      </c>
+      <c r="M8" s="15"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="7"/>
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
-      <c r="S8" s="10"/>
+      <c r="S8" s="9" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="9" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A9" s="3">
@@ -4199,7 +3932,7 @@
         <v>50</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>686</v>
+        <v>601</v>
       </c>
       <c r="I9" s="10" t="s">
         <v>542</v>
@@ -4211,16 +3944,14 @@
       <c r="L9" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M9" s="15" t="s">
-        <v>599</v>
-      </c>
+      <c r="M9" s="15"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="7"/>
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
-      <c r="S9" s="9" t="s">
-        <v>640</v>
+      <c r="S9" s="10" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -4246,7 +3977,7 @@
         <v>54</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>687</v>
+        <v>602</v>
       </c>
       <c r="I10" s="10" t="s">
         <v>545</v>
@@ -4266,8 +3997,8 @@
       <c r="P10" s="7"/>
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
-      <c r="S10" s="9" t="s">
-        <v>643</v>
+      <c r="S10" s="10" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -4301,16 +4032,14 @@
       <c r="J11" s="9"/>
       <c r="K11" s="9"/>
       <c r="L11" s="14"/>
-      <c r="M11" s="16" t="s">
-        <v>598</v>
-      </c>
+      <c r="M11" s="16"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="7"/>
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
-      <c r="S11" s="9" t="s">
-        <v>644</v>
+      <c r="S11" s="10" t="s">
+        <v>657</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -4336,7 +4065,7 @@
         <v>62</v>
       </c>
       <c r="H12" s="9" t="s">
-        <v>688</v>
+        <v>603</v>
       </c>
       <c r="I12" s="9" t="s">
         <v>547</v>
@@ -4350,16 +4079,14 @@
       <c r="L12" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="M12" s="14" t="s">
-        <v>600</v>
-      </c>
+      <c r="M12" s="14"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="9" t="s">
-        <v>645</v>
+      <c r="S12" s="10" t="s">
+        <v>658</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -4405,11 +4132,11 @@
       <c r="P13" s="7"/>
       <c r="Q13" s="7"/>
       <c r="R13" s="7"/>
-      <c r="S13" s="9" t="s">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S13" s="10" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A14" s="3">
         <v>5</v>
       </c>
@@ -4446,19 +4173,17 @@
       <c r="L14" s="14" t="s">
         <v>551</v>
       </c>
-      <c r="M14" s="14" t="s">
-        <v>601</v>
-      </c>
+      <c r="M14" s="14"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="7"/>
       <c r="Q14" s="7"/>
       <c r="R14" s="7"/>
-      <c r="S14" s="9" t="s">
-        <v>647</v>
-      </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S14" s="10" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A15" s="3">
         <v>5</v>
       </c>
@@ -4481,7 +4206,7 @@
         <v>74</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>689</v>
+        <v>604</v>
       </c>
       <c r="I15" s="10" t="s">
         <v>539</v>
@@ -4495,16 +4220,14 @@
       <c r="L15" s="14" t="s">
         <v>552</v>
       </c>
-      <c r="M15" s="15" t="s">
-        <v>602</v>
-      </c>
+      <c r="M15" s="15"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="7"/>
       <c r="Q15" s="7"/>
       <c r="R15" s="7"/>
-      <c r="S15" s="9" t="s">
-        <v>648</v>
+      <c r="S15" s="10" t="s">
+        <v>660</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -4530,7 +4253,7 @@
         <v>78</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>690</v>
+        <v>605</v>
       </c>
       <c r="I16" s="10" t="s">
         <v>542</v>
@@ -4542,16 +4265,14 @@
       <c r="L16" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M16" s="15" t="s">
-        <v>603</v>
-      </c>
+      <c r="M16" s="15"/>
       <c r="N16" s="5"/>
       <c r="O16" s="5"/>
       <c r="P16" s="7"/>
       <c r="Q16" s="7"/>
       <c r="R16" s="7"/>
-      <c r="S16" s="9" t="s">
-        <v>649</v>
+      <c r="S16" s="10" t="s">
+        <v>661</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -4589,16 +4310,14 @@
       <c r="L17" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M17" s="14" t="s">
-        <v>604</v>
-      </c>
+      <c r="M17" s="14"/>
       <c r="N17" s="5"/>
       <c r="O17" s="5"/>
       <c r="P17" s="7"/>
       <c r="Q17" s="7"/>
       <c r="R17" s="7"/>
-      <c r="S17" s="9" t="s">
-        <v>640</v>
+      <c r="S17" s="10" t="s">
+        <v>662</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -4638,11 +4357,11 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="7"/>
-      <c r="S18" s="9" t="s">
-        <v>650</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S18" s="10" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A19" s="3">
         <v>5</v>
       </c>
@@ -4677,16 +4396,14 @@
       <c r="L19" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M19" s="15" t="s">
-        <v>605</v>
-      </c>
+      <c r="M19" s="15"/>
       <c r="N19" s="5"/>
       <c r="O19" s="5"/>
       <c r="P19" s="7"/>
       <c r="Q19" s="7"/>
       <c r="R19" s="7"/>
-      <c r="S19" s="9" t="s">
-        <v>640</v>
+      <c r="S19" s="10" t="s">
+        <v>663</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -4720,16 +4437,14 @@
       <c r="J20" s="9"/>
       <c r="K20" s="9"/>
       <c r="L20" s="14"/>
-      <c r="M20" s="15" t="s">
-        <v>606</v>
-      </c>
+      <c r="M20" s="15"/>
       <c r="N20" s="5"/>
       <c r="O20" s="5"/>
       <c r="P20" s="7"/>
       <c r="Q20" s="7"/>
       <c r="R20" s="7"/>
-      <c r="S20" s="9" t="s">
-        <v>651</v>
+      <c r="S20" s="10" t="s">
+        <v>664</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -4755,7 +4470,7 @@
         <v>98</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>691</v>
+        <v>606</v>
       </c>
       <c r="I21" s="10" t="s">
         <v>542</v>
@@ -4773,8 +4488,8 @@
       <c r="P21" s="7"/>
       <c r="Q21" s="7"/>
       <c r="R21" s="7"/>
-      <c r="S21" s="9" t="s">
-        <v>640</v>
+      <c r="S21" s="10" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -4814,9 +4529,11 @@
       <c r="P22" s="7"/>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
-      <c r="S22" s="9"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S22" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -4853,19 +4570,17 @@
       <c r="L23" s="14" t="s">
         <v>558</v>
       </c>
-      <c r="M23" s="14" t="s">
-        <v>607</v>
-      </c>
+      <c r="M23" s="14"/>
       <c r="N23" s="5"/>
       <c r="O23" s="5"/>
       <c r="P23" s="7"/>
       <c r="Q23" s="7"/>
       <c r="R23" s="7"/>
-      <c r="S23" s="9" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S23" s="10" t="s">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A24" s="3">
         <v>5</v>
       </c>
@@ -4902,16 +4617,14 @@
       <c r="L24" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="M24" s="14" t="s">
-        <v>608</v>
-      </c>
+      <c r="M24" s="14"/>
       <c r="N24" s="5"/>
       <c r="O24" s="5"/>
       <c r="P24" s="7"/>
       <c r="Q24" s="7"/>
       <c r="R24" s="7"/>
-      <c r="S24" s="9" t="s">
-        <v>653</v>
+      <c r="S24" s="10" t="s">
+        <v>666</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -4951,9 +4664,11 @@
       <c r="P25" s="7"/>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
-      <c r="S25" s="10"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S25" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A26" s="3">
         <v>5</v>
       </c>
@@ -4976,7 +4691,7 @@
         <v>118</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>692</v>
+        <v>607</v>
       </c>
       <c r="I26" s="9" t="s">
         <v>539</v>
@@ -4990,16 +4705,14 @@
       <c r="L26" s="14" t="s">
         <v>540</v>
       </c>
-      <c r="M26" s="14" t="s">
-        <v>609</v>
-      </c>
+      <c r="M26" s="14"/>
       <c r="N26" s="5"/>
       <c r="O26" s="5"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="7"/>
       <c r="R26" s="7"/>
-      <c r="S26" s="9" t="s">
-        <v>654</v>
+      <c r="S26" s="10" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -5043,8 +4756,8 @@
       <c r="P27" s="7"/>
       <c r="Q27" s="7"/>
       <c r="R27" s="7"/>
-      <c r="S27" s="9" t="s">
-        <v>640</v>
+      <c r="S27" s="10" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -5070,7 +4783,7 @@
         <v>126</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>693</v>
+        <v>608</v>
       </c>
       <c r="I28" s="9" t="s">
         <v>537</v>
@@ -5078,16 +4791,14 @@
       <c r="J28" s="10"/>
       <c r="K28" s="10"/>
       <c r="L28" s="14"/>
-      <c r="M28" s="16" t="s">
-        <v>598</v>
-      </c>
+      <c r="M28" s="16"/>
       <c r="N28" s="5"/>
       <c r="O28" s="5"/>
       <c r="P28" s="7"/>
       <c r="Q28" s="7"/>
       <c r="R28" s="7"/>
-      <c r="S28" s="9" t="s">
-        <v>640</v>
+      <c r="S28" s="10" t="s">
+        <v>668</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -5113,7 +4824,7 @@
         <v>130</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>694</v>
+        <v>609</v>
       </c>
       <c r="I29" s="10" t="s">
         <v>542</v>
@@ -5131,8 +4842,8 @@
       <c r="P29" s="7"/>
       <c r="Q29" s="7"/>
       <c r="R29" s="7"/>
-      <c r="S29" s="9" t="s">
-        <v>640</v>
+      <c r="S29" s="10" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -5178,8 +4889,8 @@
       <c r="P30" s="7"/>
       <c r="Q30" s="7"/>
       <c r="R30" s="7"/>
-      <c r="S30" s="9" t="s">
-        <v>655</v>
+      <c r="S30" s="10" t="s">
+        <v>643</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -5205,7 +4916,7 @@
         <v>138</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>695</v>
+        <v>610</v>
       </c>
       <c r="I31" s="9" t="s">
         <v>537</v>
@@ -5213,16 +4924,14 @@
       <c r="J31" s="9"/>
       <c r="K31" s="9"/>
       <c r="L31" s="14"/>
-      <c r="M31" s="16" t="s">
-        <v>598</v>
-      </c>
+      <c r="M31" s="16"/>
       <c r="N31" s="5"/>
       <c r="O31" s="5"/>
       <c r="P31" s="7"/>
       <c r="Q31" s="7"/>
       <c r="R31" s="7"/>
-      <c r="S31" s="9" t="s">
-        <v>656</v>
+      <c r="S31" s="10" t="s">
+        <v>669</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
@@ -5266,8 +4975,8 @@
       <c r="P32" s="7"/>
       <c r="Q32" s="7"/>
       <c r="R32" s="7"/>
-      <c r="S32" s="9" t="s">
-        <v>657</v>
+      <c r="S32" s="10" t="s">
+        <v>644</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
@@ -5293,7 +5002,7 @@
         <v>146</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>696</v>
+        <v>611</v>
       </c>
       <c r="I33" s="9" t="s">
         <v>539</v>
@@ -5313,8 +5022,8 @@
       <c r="P33" s="7"/>
       <c r="Q33" s="7"/>
       <c r="R33" s="7"/>
-      <c r="S33" s="9" t="s">
-        <v>653</v>
+      <c r="S33" s="10" t="s">
+        <v>642</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
@@ -5358,11 +5067,11 @@
       <c r="P34" s="7"/>
       <c r="Q34" s="7"/>
       <c r="R34" s="7"/>
-      <c r="S34" s="9" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="S34" s="10" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A35" s="3">
         <v>5</v>
       </c>
@@ -5385,7 +5094,7 @@
         <v>154</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>697</v>
+        <v>612</v>
       </c>
       <c r="I35" s="17" t="s">
         <v>542</v>
@@ -5397,16 +5106,14 @@
       <c r="L35" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M35" s="14" t="s">
-        <v>724</v>
-      </c>
+      <c r="M35" s="14"/>
       <c r="N35" s="5"/>
       <c r="O35" s="5"/>
       <c r="P35" s="7"/>
       <c r="Q35" s="7"/>
       <c r="R35" s="7"/>
-      <c r="S35" s="9" t="s">
-        <v>659</v>
+      <c r="S35" s="10" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
@@ -5446,7 +5153,9 @@
       <c r="P36" s="7"/>
       <c r="Q36" s="7"/>
       <c r="R36" s="7"/>
-      <c r="S36" s="9"/>
+      <c r="S36" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A37" s="3">
@@ -5489,8 +5198,8 @@
       <c r="P37" s="7"/>
       <c r="Q37" s="7"/>
       <c r="R37" s="7"/>
-      <c r="S37" s="9" t="s">
-        <v>640</v>
+      <c r="S37" s="10" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
@@ -5530,9 +5239,11 @@
       <c r="P38" s="7"/>
       <c r="Q38" s="7"/>
       <c r="R38" s="7"/>
-      <c r="S38" s="9"/>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S38" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A39" s="3">
         <v>5</v>
       </c>
@@ -5563,17 +5274,17 @@
       <c r="J39" s="9"/>
       <c r="K39" s="9"/>
       <c r="L39" s="14"/>
-      <c r="M39" s="14" t="s">
-        <v>610</v>
-      </c>
+      <c r="M39" s="14"/>
       <c r="N39" s="5"/>
       <c r="O39" s="5"/>
       <c r="P39" s="7"/>
       <c r="Q39" s="7"/>
       <c r="R39" s="7"/>
-      <c r="S39" s="10"/>
-    </row>
-    <row r="40" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="S39" s="9" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A40" s="3">
         <v>5</v>
       </c>
@@ -5596,7 +5307,7 @@
         <v>173</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>698</v>
+        <v>613</v>
       </c>
       <c r="I40" s="10" t="s">
         <v>542</v>
@@ -5608,19 +5319,17 @@
       <c r="L40" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M40" s="15" t="s">
-        <v>611</v>
-      </c>
+      <c r="M40" s="15"/>
       <c r="N40" s="5"/>
       <c r="O40" s="5"/>
       <c r="P40" s="7"/>
       <c r="Q40" s="7"/>
       <c r="R40" s="7"/>
-      <c r="S40" s="9" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="S40" s="10" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A41" s="3">
         <v>5</v>
       </c>
@@ -5643,7 +5352,7 @@
         <v>177</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>699</v>
+        <v>614</v>
       </c>
       <c r="I41" s="10" t="s">
         <v>542</v>
@@ -5655,16 +5364,14 @@
       <c r="L41" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M41" s="15" t="s">
-        <v>612</v>
-      </c>
+      <c r="M41" s="15"/>
       <c r="N41" s="5"/>
       <c r="O41" s="5"/>
       <c r="P41" s="7"/>
       <c r="Q41" s="7"/>
       <c r="R41" s="7"/>
-      <c r="S41" s="9" t="s">
-        <v>660</v>
+      <c r="S41" s="10" t="s">
+        <v>672</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -5690,7 +5397,7 @@
         <v>181</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>700</v>
+        <v>615</v>
       </c>
       <c r="I42" s="10" t="s">
         <v>542</v>
@@ -5702,16 +5409,14 @@
       <c r="L42" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M42" s="15" t="s">
-        <v>613</v>
-      </c>
+      <c r="M42" s="15"/>
       <c r="N42" s="5"/>
       <c r="O42" s="5"/>
       <c r="P42" s="7"/>
       <c r="Q42" s="7"/>
       <c r="R42" s="7"/>
-      <c r="S42" s="9" t="s">
-        <v>661</v>
+      <c r="S42" s="10" t="s">
+        <v>673</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
@@ -5751,7 +5456,9 @@
       <c r="P43" s="7"/>
       <c r="Q43" s="7"/>
       <c r="R43" s="7"/>
-      <c r="S43" s="9"/>
+      <c r="S43" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A44" s="3">
@@ -5788,16 +5495,14 @@
       <c r="L44" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M44" s="15" t="s">
-        <v>614</v>
-      </c>
+      <c r="M44" s="15"/>
       <c r="N44" s="5"/>
       <c r="O44" s="5"/>
       <c r="P44" s="7"/>
       <c r="Q44" s="7"/>
       <c r="R44" s="7"/>
-      <c r="S44" s="9" t="s">
-        <v>662</v>
+      <c r="S44" s="10" t="s">
+        <v>674</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -5823,7 +5528,7 @@
         <v>193</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>701</v>
+        <v>616</v>
       </c>
       <c r="I45" s="10" t="s">
         <v>542</v>
@@ -5835,16 +5540,14 @@
       <c r="L45" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M45" s="15" t="s">
-        <v>615</v>
-      </c>
+      <c r="M45" s="15"/>
       <c r="N45" s="5"/>
       <c r="O45" s="5"/>
       <c r="P45" s="7"/>
       <c r="Q45" s="7"/>
       <c r="R45" s="7"/>
-      <c r="S45" s="9" t="s">
-        <v>663</v>
+      <c r="S45" s="10" t="s">
+        <v>675</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
@@ -5884,9 +5587,11 @@
       <c r="P46" s="7"/>
       <c r="Q46" s="7"/>
       <c r="R46" s="7"/>
-      <c r="S46" s="10"/>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S46" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A47" s="3">
         <v>5</v>
       </c>
@@ -5909,7 +5614,7 @@
         <v>201</v>
       </c>
       <c r="H47" s="11" t="s">
-        <v>702</v>
+        <v>617</v>
       </c>
       <c r="I47" s="10" t="s">
         <v>544</v>
@@ -5923,16 +5628,14 @@
       <c r="L47" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="M47" s="15" t="s">
-        <v>616</v>
-      </c>
+      <c r="M47" s="15"/>
       <c r="N47" s="5"/>
       <c r="O47" s="5"/>
       <c r="P47" s="7"/>
       <c r="Q47" s="7"/>
       <c r="R47" s="7"/>
-      <c r="S47" s="9" t="s">
-        <v>664</v>
+      <c r="S47" s="10" t="s">
+        <v>676</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
@@ -5972,7 +5675,9 @@
       <c r="P48" s="7"/>
       <c r="Q48" s="7"/>
       <c r="R48" s="7"/>
-      <c r="S48" s="10"/>
+      <c r="S48" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="49" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A49" s="3">
@@ -6011,7 +5716,9 @@
       <c r="P49" s="7"/>
       <c r="Q49" s="7"/>
       <c r="R49" s="7"/>
-      <c r="S49" s="9"/>
+      <c r="S49" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="50" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A50" s="3">
@@ -6048,16 +5755,14 @@
       <c r="L50" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M50" s="15" t="s">
-        <v>617</v>
-      </c>
+      <c r="M50" s="15"/>
       <c r="N50" s="5"/>
       <c r="O50" s="5"/>
       <c r="P50" s="7"/>
       <c r="Q50" s="7"/>
       <c r="R50" s="7"/>
-      <c r="S50" s="9" t="s">
-        <v>640</v>
+      <c r="S50" s="10" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -6083,7 +5788,7 @@
         <v>217</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>703</v>
+        <v>618</v>
       </c>
       <c r="I51" s="10" t="s">
         <v>542</v>
@@ -6095,16 +5800,14 @@
       <c r="L51" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M51" s="15" t="s">
-        <v>618</v>
-      </c>
+      <c r="M51" s="15"/>
       <c r="N51" s="5"/>
       <c r="O51" s="5"/>
       <c r="P51" s="7"/>
       <c r="Q51" s="7"/>
       <c r="R51" s="7"/>
-      <c r="S51" s="9" t="s">
-        <v>640</v>
+      <c r="S51" s="10" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
@@ -6144,7 +5847,9 @@
       <c r="P52" s="7"/>
       <c r="Q52" s="7"/>
       <c r="R52" s="7"/>
-      <c r="S52" s="9"/>
+      <c r="S52" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="53" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A53" s="3">
@@ -6169,7 +5874,7 @@
         <v>225</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>704</v>
+        <v>619</v>
       </c>
       <c r="I53" s="9" t="s">
         <v>537</v>
@@ -6177,16 +5882,14 @@
       <c r="J53" s="9"/>
       <c r="K53" s="9"/>
       <c r="L53" s="14"/>
-      <c r="M53" s="14" t="s">
-        <v>619</v>
-      </c>
+      <c r="M53" s="14"/>
       <c r="N53" s="5"/>
       <c r="O53" s="5"/>
       <c r="P53" s="7"/>
       <c r="Q53" s="7"/>
       <c r="R53" s="7"/>
-      <c r="S53" s="9" t="s">
-        <v>665</v>
+      <c r="S53" s="10" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
@@ -6226,9 +5929,11 @@
       <c r="P54" s="7"/>
       <c r="Q54" s="7"/>
       <c r="R54" s="7"/>
-      <c r="S54" s="9"/>
-    </row>
-    <row r="55" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="S54" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A55" s="3">
         <v>5</v>
       </c>
@@ -6251,7 +5956,7 @@
         <v>233</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>705</v>
+        <v>620</v>
       </c>
       <c r="I55" s="9" t="s">
         <v>537</v>
@@ -6259,19 +5964,17 @@
       <c r="J55" s="10"/>
       <c r="K55" s="10"/>
       <c r="L55" s="14"/>
-      <c r="M55" s="15" t="s">
-        <v>725</v>
-      </c>
+      <c r="M55" s="15"/>
       <c r="N55" s="5"/>
       <c r="O55" s="5"/>
       <c r="P55" s="7"/>
       <c r="Q55" s="7"/>
       <c r="R55" s="7"/>
-      <c r="S55" s="9" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="56" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S55" s="10" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A56" s="3">
         <v>5</v>
       </c>
@@ -6308,16 +6011,14 @@
       <c r="L56" s="14" t="s">
         <v>591</v>
       </c>
-      <c r="M56" s="15" t="s">
-        <v>620</v>
-      </c>
+      <c r="M56" s="15"/>
       <c r="N56" s="5"/>
       <c r="O56" s="5"/>
       <c r="P56" s="7"/>
       <c r="Q56" s="7"/>
       <c r="R56" s="7"/>
-      <c r="S56" s="9" t="s">
-        <v>645</v>
+      <c r="S56" s="10" t="s">
+        <v>681</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
@@ -6357,7 +6058,9 @@
       <c r="P57" s="7"/>
       <c r="Q57" s="7"/>
       <c r="R57" s="7"/>
-      <c r="S57" s="9"/>
+      <c r="S57" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="58" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A58" s="3">
@@ -6394,7 +6097,9 @@
       <c r="P58" s="7"/>
       <c r="Q58" s="7"/>
       <c r="R58" s="7"/>
-      <c r="S58" s="20"/>
+      <c r="S58" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A59" s="3">
@@ -6419,7 +6124,7 @@
         <v>249</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>706</v>
+        <v>621</v>
       </c>
       <c r="I59" s="10" t="s">
         <v>544</v>
@@ -6433,16 +6138,14 @@
       <c r="L59" s="14" t="s">
         <v>589</v>
       </c>
-      <c r="M59" s="14" t="s">
-        <v>621</v>
-      </c>
+      <c r="M59" s="14"/>
       <c r="N59" s="5"/>
       <c r="O59" s="5"/>
       <c r="P59" s="7"/>
       <c r="Q59" s="7"/>
       <c r="R59" s="7"/>
-      <c r="S59" s="9" t="s">
-        <v>667</v>
+      <c r="S59" s="10" t="s">
+        <v>682</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -6468,7 +6171,7 @@
         <v>253</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>707</v>
+        <v>622</v>
       </c>
       <c r="I60" s="9" t="s">
         <v>537</v>
@@ -6476,16 +6179,14 @@
       <c r="J60" s="10"/>
       <c r="K60" s="10"/>
       <c r="L60" s="14"/>
-      <c r="M60" s="15" t="s">
-        <v>622</v>
-      </c>
+      <c r="M60" s="15"/>
       <c r="N60" s="5"/>
       <c r="O60" s="5"/>
       <c r="P60" s="7"/>
       <c r="Q60" s="7"/>
       <c r="R60" s="7"/>
-      <c r="S60" s="9" t="s">
-        <v>668</v>
+      <c r="S60" s="10" t="s">
+        <v>683</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -6511,7 +6212,7 @@
         <v>257</v>
       </c>
       <c r="H61" s="9" t="s">
-        <v>708</v>
+        <v>623</v>
       </c>
       <c r="I61" s="9" t="s">
         <v>537</v>
@@ -6519,16 +6220,14 @@
       <c r="J61" s="9"/>
       <c r="K61" s="9"/>
       <c r="L61" s="14"/>
-      <c r="M61" s="14" t="s">
-        <v>623</v>
-      </c>
+      <c r="M61" s="14"/>
       <c r="N61" s="5"/>
       <c r="O61" s="5"/>
       <c r="P61" s="7"/>
       <c r="Q61" s="7"/>
       <c r="R61" s="7"/>
-      <c r="S61" s="9" t="s">
-        <v>640</v>
+      <c r="S61" s="10" t="s">
+        <v>684</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -6554,7 +6253,7 @@
         <v>261</v>
       </c>
       <c r="H62" s="12" t="s">
-        <v>709</v>
+        <v>624</v>
       </c>
       <c r="I62" s="12" t="s">
         <v>539</v>
@@ -6574,11 +6273,11 @@
       <c r="P62" s="7"/>
       <c r="Q62" s="7"/>
       <c r="R62" s="7"/>
-      <c r="S62" s="12" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="63" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S62" s="10" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A63" s="3">
         <v>5</v>
       </c>
@@ -6609,15 +6308,15 @@
       <c r="J63" s="9"/>
       <c r="K63" s="9"/>
       <c r="L63" s="14"/>
-      <c r="M63" s="14" t="s">
-        <v>624</v>
-      </c>
+      <c r="M63" s="14"/>
       <c r="N63" s="5"/>
       <c r="O63" s="5"/>
       <c r="P63" s="7"/>
       <c r="Q63" s="7"/>
       <c r="R63" s="7"/>
-      <c r="S63" s="9"/>
+      <c r="S63" s="9" t="s">
+        <v>598</v>
+      </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A64" s="3">
@@ -6654,16 +6353,14 @@
       <c r="L64" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M64" s="15" t="s">
-        <v>625</v>
-      </c>
+      <c r="M64" s="15"/>
       <c r="N64" s="5"/>
       <c r="O64" s="5"/>
       <c r="P64" s="7"/>
       <c r="Q64" s="7"/>
       <c r="R64" s="7"/>
-      <c r="S64" s="9" t="s">
-        <v>640</v>
+      <c r="S64" s="10" t="s">
+        <v>685</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
@@ -6703,7 +6400,9 @@
       <c r="P65" s="7"/>
       <c r="Q65" s="7"/>
       <c r="R65" s="7"/>
-      <c r="S65" s="9"/>
+      <c r="S65" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A66" s="3">
@@ -6742,7 +6441,9 @@
       <c r="P66" s="7"/>
       <c r="Q66" s="7"/>
       <c r="R66" s="7"/>
-      <c r="S66" s="9"/>
+      <c r="S66" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A67" s="3">
@@ -6785,8 +6486,8 @@
       <c r="P67" s="7"/>
       <c r="Q67" s="7"/>
       <c r="R67" s="7"/>
-      <c r="S67" s="9" t="s">
-        <v>640</v>
+      <c r="S67" s="10" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
@@ -6826,7 +6527,9 @@
       <c r="P68" s="7"/>
       <c r="Q68" s="7"/>
       <c r="R68" s="7"/>
-      <c r="S68" s="9"/>
+      <c r="S68" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A69" s="3">
@@ -6851,7 +6554,7 @@
         <v>289</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>710</v>
+        <v>625</v>
       </c>
       <c r="I69" s="9" t="s">
         <v>539</v>
@@ -6871,11 +6574,11 @@
       <c r="P69" s="7"/>
       <c r="Q69" s="7"/>
       <c r="R69" s="7"/>
-      <c r="S69" s="9" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="70" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
+      <c r="S69" s="10" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A70" s="3">
         <v>5</v>
       </c>
@@ -6906,15 +6609,15 @@
       <c r="J70" s="10"/>
       <c r="K70" s="10"/>
       <c r="L70" s="14"/>
-      <c r="M70" s="15" t="s">
-        <v>726</v>
-      </c>
+      <c r="M70" s="15"/>
       <c r="N70" s="5"/>
       <c r="O70" s="5"/>
       <c r="P70" s="7"/>
       <c r="Q70" s="7"/>
       <c r="R70" s="7"/>
-      <c r="S70" s="10"/>
+      <c r="S70" s="9" t="s">
+        <v>686</v>
+      </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A71" s="3">
@@ -6957,8 +6660,8 @@
       <c r="P71" s="7"/>
       <c r="Q71" s="7"/>
       <c r="R71" s="7"/>
-      <c r="S71" s="9" t="s">
-        <v>640</v>
+      <c r="S71" s="10" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -6984,7 +6687,7 @@
         <v>301</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>711</v>
+        <v>626</v>
       </c>
       <c r="I72" s="10" t="s">
         <v>542</v>
@@ -7002,8 +6705,8 @@
       <c r="P72" s="7"/>
       <c r="Q72" s="7"/>
       <c r="R72" s="7"/>
-      <c r="S72" s="9" t="s">
-        <v>640</v>
+      <c r="S72" s="10" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
@@ -7037,16 +6740,14 @@
       <c r="J73" s="10"/>
       <c r="K73" s="10"/>
       <c r="L73" s="14"/>
-      <c r="M73" s="15" t="s">
-        <v>626</v>
-      </c>
+      <c r="M73" s="15"/>
       <c r="N73" s="5"/>
       <c r="O73" s="5"/>
       <c r="P73" s="7"/>
       <c r="Q73" s="7"/>
       <c r="R73" s="7"/>
-      <c r="S73" s="9" t="s">
-        <v>640</v>
+      <c r="S73" s="10" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
@@ -7086,7 +6787,9 @@
       <c r="P74" s="7"/>
       <c r="Q74" s="7"/>
       <c r="R74" s="7"/>
-      <c r="S74" s="9"/>
+      <c r="S74" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="75" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A75" s="3">
@@ -7111,7 +6814,7 @@
         <v>313</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>712</v>
+        <v>627</v>
       </c>
       <c r="I75" s="10" t="s">
         <v>542</v>
@@ -7129,8 +6832,8 @@
       <c r="P75" s="7"/>
       <c r="Q75" s="7"/>
       <c r="R75" s="7"/>
-      <c r="S75" s="9" t="s">
-        <v>640</v>
+      <c r="S75" s="10" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
@@ -7170,7 +6873,9 @@
       <c r="P76" s="7"/>
       <c r="Q76" s="7"/>
       <c r="R76" s="7"/>
-      <c r="S76" s="10"/>
+      <c r="S76" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A77" s="3">
@@ -7195,7 +6900,7 @@
         <v>321</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>713</v>
+        <v>628</v>
       </c>
       <c r="I77" s="9" t="s">
         <v>537</v>
@@ -7203,19 +6908,17 @@
       <c r="J77" s="10"/>
       <c r="K77" s="10"/>
       <c r="L77" s="14"/>
-      <c r="M77" s="15" t="s">
-        <v>627</v>
-      </c>
+      <c r="M77" s="15"/>
       <c r="N77" s="5"/>
       <c r="O77" s="5"/>
       <c r="P77" s="7"/>
       <c r="Q77" s="7"/>
       <c r="R77" s="7"/>
-      <c r="S77" s="9" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="78" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S77" s="10" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A78" s="3">
         <v>5</v>
       </c>
@@ -7246,16 +6949,14 @@
       <c r="J78" s="9"/>
       <c r="K78" s="9"/>
       <c r="L78" s="14"/>
-      <c r="M78" s="14" t="s">
-        <v>628</v>
-      </c>
+      <c r="M78" s="14"/>
       <c r="N78" s="5"/>
       <c r="O78" s="5"/>
       <c r="P78" s="7"/>
       <c r="Q78" s="7"/>
       <c r="R78" s="7"/>
-      <c r="S78" s="9" t="s">
-        <v>672</v>
+      <c r="S78" s="10" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
@@ -7301,11 +7002,11 @@
       <c r="P79" s="7"/>
       <c r="Q79" s="7"/>
       <c r="R79" s="7"/>
-      <c r="S79" s="9" t="s">
-        <v>673</v>
-      </c>
-    </row>
-    <row r="80" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S79" s="10" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="80" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A80" s="3">
         <v>5</v>
       </c>
@@ -7342,16 +7043,14 @@
       <c r="L80" s="14" t="s">
         <v>570</v>
       </c>
-      <c r="M80" s="14" t="s">
-        <v>629</v>
-      </c>
+      <c r="M80" s="14"/>
       <c r="N80" s="5"/>
       <c r="O80" s="5"/>
       <c r="P80" s="7"/>
       <c r="Q80" s="7"/>
       <c r="R80" s="7"/>
-      <c r="S80" s="9" t="s">
-        <v>674</v>
+      <c r="S80" s="10" t="s">
+        <v>690</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
@@ -7391,9 +7090,11 @@
       <c r="P81" s="7"/>
       <c r="Q81" s="7"/>
       <c r="R81" s="7"/>
-      <c r="S81" s="9"/>
-    </row>
-    <row r="82" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S81" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A82" s="3">
         <v>5</v>
       </c>
@@ -7430,16 +7131,14 @@
       <c r="L82" s="14" t="s">
         <v>594</v>
       </c>
-      <c r="M82" s="15" t="s">
-        <v>727</v>
-      </c>
+      <c r="M82" s="15"/>
       <c r="N82" s="5"/>
       <c r="O82" s="5"/>
       <c r="P82" s="7"/>
       <c r="Q82" s="7"/>
       <c r="R82" s="7"/>
-      <c r="S82" s="9" t="s">
-        <v>675</v>
+      <c r="S82" s="10" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
@@ -7479,7 +7178,9 @@
       <c r="P83" s="7"/>
       <c r="Q83" s="7"/>
       <c r="R83" s="7"/>
-      <c r="S83" s="9"/>
+      <c r="S83" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A84" s="3">
@@ -7524,8 +7225,8 @@
       <c r="P84" s="7"/>
       <c r="Q84" s="7"/>
       <c r="R84" s="7"/>
-      <c r="S84" s="9" t="s">
-        <v>676</v>
+      <c r="S84" s="10" t="s">
+        <v>649</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
@@ -7559,17 +7260,17 @@
       <c r="J85" s="10"/>
       <c r="K85" s="10"/>
       <c r="L85" s="14"/>
-      <c r="M85" s="15" t="s">
-        <v>728</v>
-      </c>
+      <c r="M85" s="15"/>
       <c r="N85" s="5"/>
       <c r="O85" s="5"/>
       <c r="P85" s="7"/>
       <c r="Q85" s="7"/>
       <c r="R85" s="7"/>
-      <c r="S85" s="10"/>
-    </row>
-    <row r="86" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S85" s="9" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="86" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A86" s="3">
         <v>5</v>
       </c>
@@ -7604,16 +7305,14 @@
       <c r="L86" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M86" s="15" t="s">
-        <v>630</v>
-      </c>
+      <c r="M86" s="15"/>
       <c r="N86" s="5"/>
       <c r="O86" s="5"/>
       <c r="P86" s="7"/>
       <c r="Q86" s="7"/>
       <c r="R86" s="7"/>
-      <c r="S86" s="9" t="s">
-        <v>640</v>
+      <c r="S86" s="10" t="s">
+        <v>693</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
@@ -7653,7 +7352,9 @@
       <c r="P87" s="7"/>
       <c r="Q87" s="7"/>
       <c r="R87" s="7"/>
-      <c r="S87" s="9"/>
+      <c r="S87" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A88" s="3">
@@ -7692,7 +7393,9 @@
       <c r="P88" s="7"/>
       <c r="Q88" s="7"/>
       <c r="R88" s="7"/>
-      <c r="S88" s="10"/>
+      <c r="S88" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A89" s="3">
@@ -7725,15 +7428,15 @@
       <c r="J89" s="18"/>
       <c r="K89" s="18"/>
       <c r="L89" s="14"/>
-      <c r="M89" s="14" t="s">
-        <v>729</v>
-      </c>
+      <c r="M89" s="14"/>
       <c r="N89" s="5"/>
       <c r="O89" s="5"/>
       <c r="P89" s="7"/>
       <c r="Q89" s="7"/>
       <c r="R89" s="7"/>
-      <c r="S89" s="9"/>
+      <c r="S89" s="9" t="s">
+        <v>694</v>
+      </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A90" s="3">
@@ -7772,7 +7475,9 @@
       <c r="P90" s="7"/>
       <c r="Q90" s="7"/>
       <c r="R90" s="7"/>
-      <c r="S90" s="10"/>
+      <c r="S90" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A91" s="3">
@@ -7811,7 +7516,9 @@
       <c r="P91" s="7"/>
       <c r="Q91" s="7"/>
       <c r="R91" s="7"/>
-      <c r="S91" s="9"/>
+      <c r="S91" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="92" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A92" s="3">
@@ -7836,7 +7543,7 @@
         <v>381</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>714</v>
+        <v>629</v>
       </c>
       <c r="I92" s="9" t="s">
         <v>537</v>
@@ -7844,16 +7551,14 @@
       <c r="J92" s="10"/>
       <c r="K92" s="10"/>
       <c r="L92" s="14"/>
-      <c r="M92" s="15" t="s">
-        <v>598</v>
-      </c>
+      <c r="M92" s="15"/>
       <c r="N92" s="5"/>
       <c r="O92" s="5"/>
       <c r="P92" s="7"/>
       <c r="Q92" s="7"/>
       <c r="R92" s="7"/>
-      <c r="S92" s="9" t="s">
-        <v>677</v>
+      <c r="S92" s="10" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
@@ -7893,7 +7598,9 @@
       <c r="P93" s="7"/>
       <c r="Q93" s="7"/>
       <c r="R93" s="7"/>
-      <c r="S93" s="9"/>
+      <c r="S93" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A94" s="3">
@@ -7938,8 +7645,8 @@
       <c r="P94" s="7"/>
       <c r="Q94" s="7"/>
       <c r="R94" s="7"/>
-      <c r="S94" s="9" t="s">
-        <v>643</v>
+      <c r="S94" s="10" t="s">
+        <v>639</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
@@ -7979,7 +7686,9 @@
       <c r="P95" s="7"/>
       <c r="Q95" s="7"/>
       <c r="R95" s="7"/>
-      <c r="S95" s="9"/>
+      <c r="S95" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
       <c r="A96" s="3">
@@ -8004,7 +7713,7 @@
         <v>397</v>
       </c>
       <c r="H96" s="10" t="s">
-        <v>715</v>
+        <v>630</v>
       </c>
       <c r="I96" s="10" t="s">
         <v>539</v>
@@ -8024,8 +7733,8 @@
       <c r="P96" s="7"/>
       <c r="Q96" s="7"/>
       <c r="R96" s="7"/>
-      <c r="S96" s="9" t="s">
-        <v>678</v>
+      <c r="S96" s="10" t="s">
+        <v>650</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -8051,7 +7760,7 @@
         <v>401</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>716</v>
+        <v>631</v>
       </c>
       <c r="I97" s="10" t="s">
         <v>542</v>
@@ -8069,8 +7778,8 @@
       <c r="P97" s="7"/>
       <c r="Q97" s="7"/>
       <c r="R97" s="7"/>
-      <c r="S97" s="9" t="s">
-        <v>640</v>
+      <c r="S97" s="10" t="s">
+        <v>637</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
@@ -8104,16 +7813,14 @@
       <c r="J98" s="9"/>
       <c r="K98" s="9"/>
       <c r="L98" s="14"/>
-      <c r="M98" s="14" t="s">
-        <v>631</v>
-      </c>
+      <c r="M98" s="14"/>
       <c r="N98" s="5"/>
       <c r="O98" s="5"/>
       <c r="P98" s="7"/>
       <c r="Q98" s="7"/>
       <c r="R98" s="7"/>
-      <c r="S98" s="9" t="s">
-        <v>679</v>
+      <c r="S98" s="10" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -8139,7 +7846,7 @@
         <v>409</v>
       </c>
       <c r="H99" s="10" t="s">
-        <v>717</v>
+        <v>632</v>
       </c>
       <c r="I99" s="10" t="s">
         <v>539</v>
@@ -8159,11 +7866,11 @@
       <c r="P99" s="7"/>
       <c r="Q99" s="7"/>
       <c r="R99" s="7"/>
-      <c r="S99" s="9" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="100" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S99" s="10" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="100" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A100" s="3">
         <v>5</v>
       </c>
@@ -8200,16 +7907,14 @@
       <c r="L100" s="14" t="s">
         <v>592</v>
       </c>
-      <c r="M100" s="15" t="s">
-        <v>632</v>
-      </c>
+      <c r="M100" s="15"/>
       <c r="N100" s="5"/>
       <c r="O100" s="5"/>
       <c r="P100" s="7"/>
       <c r="Q100" s="7"/>
       <c r="R100" s="7"/>
-      <c r="S100" s="9" t="s">
-        <v>653</v>
+      <c r="S100" s="10" t="s">
+        <v>697</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
@@ -8249,7 +7954,9 @@
       <c r="P101" s="7"/>
       <c r="Q101" s="7"/>
       <c r="R101" s="7"/>
-      <c r="S101" s="9"/>
+      <c r="S101" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="102" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A102" s="3">
@@ -8274,7 +7981,7 @@
         <v>421</v>
       </c>
       <c r="H102" s="11" t="s">
-        <v>718</v>
+        <v>633</v>
       </c>
       <c r="I102" s="9" t="s">
         <v>537</v>
@@ -8282,16 +7989,14 @@
       <c r="J102" s="11"/>
       <c r="K102" s="11"/>
       <c r="L102" s="14"/>
-      <c r="M102" s="15" t="s">
-        <v>633</v>
-      </c>
+      <c r="M102" s="15"/>
       <c r="N102" s="5"/>
       <c r="O102" s="5"/>
       <c r="P102" s="7"/>
       <c r="Q102" s="7"/>
       <c r="R102" s="7"/>
-      <c r="S102" s="10" t="s">
-        <v>681</v>
+      <c r="S102" s="9" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
@@ -8325,15 +8030,15 @@
       <c r="J103" s="10"/>
       <c r="K103" s="10"/>
       <c r="L103" s="14"/>
-      <c r="M103" s="15" t="s">
-        <v>634</v>
-      </c>
+      <c r="M103" s="15"/>
       <c r="N103" s="5"/>
       <c r="O103" s="5"/>
       <c r="P103" s="7"/>
       <c r="Q103" s="7"/>
       <c r="R103" s="7"/>
-      <c r="S103" s="10"/>
+      <c r="S103" s="9" t="s">
+        <v>599</v>
+      </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A104" s="3">
@@ -8370,16 +8075,14 @@
       <c r="L104" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M104" s="15" t="s">
-        <v>635</v>
-      </c>
+      <c r="M104" s="15"/>
       <c r="N104" s="5"/>
       <c r="O104" s="5"/>
       <c r="P104" s="7"/>
       <c r="Q104" s="7"/>
       <c r="R104" s="7"/>
-      <c r="S104" s="9" t="s">
-        <v>640</v>
+      <c r="S104" s="10" t="s">
+        <v>698</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
@@ -8405,7 +8108,7 @@
         <v>432</v>
       </c>
       <c r="H105" s="10" t="s">
-        <v>719</v>
+        <v>634</v>
       </c>
       <c r="I105" s="9" t="s">
         <v>537</v>
@@ -8413,16 +8116,14 @@
       <c r="J105" s="10"/>
       <c r="K105" s="10"/>
       <c r="L105" s="14"/>
-      <c r="M105" s="15" t="s">
-        <v>636</v>
-      </c>
+      <c r="M105" s="15"/>
       <c r="N105" s="5"/>
       <c r="O105" s="5"/>
       <c r="P105" s="7"/>
       <c r="Q105" s="7"/>
       <c r="R105" s="7"/>
-      <c r="S105" s="9" t="s">
-        <v>682</v>
+      <c r="S105" s="10" t="s">
+        <v>699</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
@@ -8466,11 +8167,11 @@
       <c r="P106" s="7"/>
       <c r="Q106" s="7"/>
       <c r="R106" s="7"/>
-      <c r="S106" s="9" t="s">
-        <v>657</v>
-      </c>
-    </row>
-    <row r="107" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S106" s="10" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="107" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A107" s="3">
         <v>5</v>
       </c>
@@ -8493,7 +8194,7 @@
         <v>439</v>
       </c>
       <c r="H107" s="11" t="s">
-        <v>718</v>
+        <v>633</v>
       </c>
       <c r="I107" s="9" t="s">
         <v>537</v>
@@ -8501,16 +8202,14 @@
       <c r="J107" s="11"/>
       <c r="K107" s="11"/>
       <c r="L107" s="14"/>
-      <c r="M107" s="15" t="s">
-        <v>637</v>
-      </c>
+      <c r="M107" s="15"/>
       <c r="N107" s="5"/>
       <c r="O107" s="5"/>
       <c r="P107" s="7"/>
       <c r="Q107" s="7"/>
       <c r="R107" s="7"/>
-      <c r="S107" s="9" t="s">
-        <v>683</v>
+      <c r="S107" s="10" t="s">
+        <v>700</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
@@ -8544,16 +8243,14 @@
       <c r="J108" s="10"/>
       <c r="K108" s="10"/>
       <c r="L108" s="14"/>
-      <c r="M108" s="15" t="s">
-        <v>598</v>
-      </c>
+      <c r="M108" s="15"/>
       <c r="N108" s="5"/>
       <c r="O108" s="5"/>
       <c r="P108" s="7"/>
       <c r="Q108" s="7"/>
       <c r="R108" s="7"/>
-      <c r="S108" s="9" t="s">
-        <v>665</v>
+      <c r="S108" s="10" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
@@ -8591,19 +8288,17 @@
       <c r="L109" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M109" s="15" t="s">
-        <v>638</v>
-      </c>
+      <c r="M109" s="15"/>
       <c r="N109" s="5"/>
       <c r="O109" s="5"/>
       <c r="P109" s="7"/>
       <c r="Q109" s="7"/>
       <c r="R109" s="7"/>
-      <c r="S109" s="9" t="s">
-        <v>640</v>
-      </c>
-    </row>
-    <row r="110" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="S109" s="10" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="110" spans="1:19" ht="31" x14ac:dyDescent="0.35">
       <c r="A110" s="3">
         <v>5</v>
       </c>
@@ -8626,7 +8321,7 @@
         <v>451</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>720</v>
+        <v>635</v>
       </c>
       <c r="I110" s="10" t="s">
         <v>542</v>
@@ -8638,16 +8333,14 @@
       <c r="L110" s="14" t="s">
         <v>542</v>
       </c>
-      <c r="M110" s="14" t="s">
-        <v>639</v>
-      </c>
+      <c r="M110" s="14"/>
       <c r="N110" s="5"/>
       <c r="O110" s="5"/>
       <c r="P110" s="7"/>
       <c r="Q110" s="7"/>
       <c r="R110" s="7"/>
-      <c r="S110" s="9" t="s">
-        <v>684</v>
+      <c r="S110" s="10" t="s">
+        <v>703</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
@@ -8685,7 +8378,9 @@
       <c r="P111" s="7"/>
       <c r="Q111" s="7"/>
       <c r="R111" s="7"/>
-      <c r="S111" s="20"/>
+      <c r="S111" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="112" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A112" s="3">
@@ -8722,7 +8417,9 @@
       <c r="P112" s="7"/>
       <c r="Q112" s="7"/>
       <c r="R112" s="7"/>
-      <c r="S112" s="20"/>
+      <c r="S112" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="113" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A113" s="3">
@@ -8759,7 +8456,9 @@
       <c r="P113" s="7"/>
       <c r="Q113" s="7"/>
       <c r="R113" s="7"/>
-      <c r="S113" s="20"/>
+      <c r="S113" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="114" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A114" s="3">
@@ -8796,7 +8495,9 @@
       <c r="P114" s="7"/>
       <c r="Q114" s="7"/>
       <c r="R114" s="7"/>
-      <c r="S114" s="20"/>
+      <c r="S114" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="115" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A115" s="3">
@@ -8833,7 +8534,9 @@
       <c r="P115" s="7"/>
       <c r="Q115" s="7"/>
       <c r="R115" s="7"/>
-      <c r="S115" s="20"/>
+      <c r="S115" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="116" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A116" s="3">
@@ -8870,7 +8573,9 @@
       <c r="P116" s="7"/>
       <c r="Q116" s="7"/>
       <c r="R116" s="7"/>
-      <c r="S116" s="20"/>
+      <c r="S116" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="117" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A117" s="3">
@@ -8907,7 +8612,9 @@
       <c r="P117" s="7"/>
       <c r="Q117" s="7"/>
       <c r="R117" s="7"/>
-      <c r="S117" s="20"/>
+      <c r="S117" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="118" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A118" s="3">
@@ -8944,7 +8651,9 @@
       <c r="P118" s="7"/>
       <c r="Q118" s="7"/>
       <c r="R118" s="7"/>
-      <c r="S118" s="20"/>
+      <c r="S118" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="119" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A119" s="3">
@@ -8981,7 +8690,9 @@
       <c r="P119" s="7"/>
       <c r="Q119" s="7"/>
       <c r="R119" s="7"/>
-      <c r="S119" s="20"/>
+      <c r="S119" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="120" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A120" s="3">
@@ -9018,7 +8729,9 @@
       <c r="P120" s="7"/>
       <c r="Q120" s="7"/>
       <c r="R120" s="7"/>
-      <c r="S120" s="20"/>
+      <c r="S120" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="121" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A121" s="3">
@@ -9055,7 +8768,9 @@
       <c r="P121" s="7"/>
       <c r="Q121" s="7"/>
       <c r="R121" s="7"/>
-      <c r="S121" s="20"/>
+      <c r="S121" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="122" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A122" s="3">
@@ -9092,7 +8807,9 @@
       <c r="P122" s="7"/>
       <c r="Q122" s="7"/>
       <c r="R122" s="7"/>
-      <c r="S122" s="20"/>
+      <c r="S122" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="123" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A123" s="3">
@@ -9129,7 +8846,9 @@
       <c r="P123" s="7"/>
       <c r="Q123" s="7"/>
       <c r="R123" s="7"/>
-      <c r="S123" s="20"/>
+      <c r="S123" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="124" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A124" s="3">
@@ -9166,7 +8885,9 @@
       <c r="P124" s="7"/>
       <c r="Q124" s="7"/>
       <c r="R124" s="7"/>
-      <c r="S124" s="20"/>
+      <c r="S124" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="125" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A125" s="3">
@@ -9203,7 +8924,9 @@
       <c r="P125" s="7"/>
       <c r="Q125" s="7"/>
       <c r="R125" s="7"/>
-      <c r="S125" s="20"/>
+      <c r="S125" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="126" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A126" s="3">
@@ -9240,7 +8963,9 @@
       <c r="P126" s="7"/>
       <c r="Q126" s="7"/>
       <c r="R126" s="7"/>
-      <c r="S126" s="20"/>
+      <c r="S126" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="127" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A127" s="3">
@@ -9277,7 +9002,9 @@
       <c r="P127" s="7"/>
       <c r="Q127" s="7"/>
       <c r="R127" s="7"/>
-      <c r="S127" s="20"/>
+      <c r="S127" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="128" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A128" s="3">
@@ -9314,7 +9041,9 @@
       <c r="P128" s="7"/>
       <c r="Q128" s="7"/>
       <c r="R128" s="7"/>
-      <c r="S128" s="20"/>
+      <c r="S128" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="129" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A129" s="3">
@@ -9351,7 +9080,9 @@
       <c r="P129" s="7"/>
       <c r="Q129" s="7"/>
       <c r="R129" s="7"/>
-      <c r="S129" s="20"/>
+      <c r="S129" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="130" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A130" s="3">
@@ -9388,7 +9119,9 @@
       <c r="P130" s="7"/>
       <c r="Q130" s="7"/>
       <c r="R130" s="7"/>
-      <c r="S130" s="20"/>
+      <c r="S130" s="9">
+        <v>0</v>
+      </c>
     </row>
     <row r="131" spans="1:19" x14ac:dyDescent="0.35">
       <c r="A131" s="3">
@@ -9425,7 +9158,9 @@
       <c r="P131" s="7"/>
       <c r="Q131" s="7"/>
       <c r="R131" s="7"/>
-      <c r="S131" s="20"/>
+      <c r="S131" s="9">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:S131"/>

--- a/sources/Tsakhur_data.xlsx
+++ b/sources/Tsakhur_data.xlsx
@@ -1704,9 +1704,6 @@
     <t>saIjXas</t>
   </si>
   <si>
-    <t>COMIT</t>
-  </si>
-  <si>
     <t>oxanas</t>
   </si>
   <si>
@@ -3069,6 +3066,9 @@
   </si>
   <si>
     <t>NOM_CONTAL</t>
+  </si>
+  <si>
+    <t>COM</t>
   </si>
 </sst>
 </file>
@@ -3522,8 +3522,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L2" sqref="L2:L131"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -3651,7 +3651,7 @@
       <c r="Q2" s="12"/>
       <c r="R2" s="12"/>
       <c r="S2" s="7" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.35">
@@ -3696,7 +3696,7 @@
       <c r="Q3" s="12"/>
       <c r="R3" s="12"/>
       <c r="S3" s="7" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.35">
@@ -3734,7 +3734,7 @@
         <v>9</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M4" s="8"/>
       <c r="N4" s="4"/>
@@ -3743,7 +3743,7 @@
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
       <c r="S4" s="8" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.35">
@@ -3772,7 +3772,7 @@
         <v>541</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>539</v>
@@ -3790,7 +3790,7 @@
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.35">
@@ -3828,7 +3828,7 @@
         <v>8</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M6" s="7"/>
       <c r="N6" s="4"/>
@@ -3837,7 +3837,7 @@
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="8" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.35">
@@ -3863,7 +3863,7 @@
         <v>42</v>
       </c>
       <c r="H7" s="7" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I7" s="7" t="s">
         <v>537</v>
@@ -3882,7 +3882,7 @@
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.35">
@@ -3927,7 +3927,7 @@
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="7" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="9" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -3953,10 +3953,10 @@
         <v>50</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I9" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>539</v>
@@ -3974,7 +3974,7 @@
       <c r="Q9" s="12"/>
       <c r="R9" s="12"/>
       <c r="S9" s="8" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.35">
@@ -4000,7 +4000,7 @@
         <v>54</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I10" s="8" t="s">
         <v>545</v>
@@ -4012,7 +4012,7 @@
         <v>8</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M10" s="8"/>
       <c r="N10" s="4"/>
@@ -4021,7 +4021,7 @@
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.35">
@@ -4066,7 +4066,7 @@
       <c r="Q11" s="12"/>
       <c r="R11" s="12"/>
       <c r="S11" s="8" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.35">
@@ -4092,7 +4092,7 @@
         <v>62</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I12" s="7" t="s">
         <v>547</v>
@@ -4104,7 +4104,7 @@
         <v>8</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M12" s="7"/>
       <c r="N12" s="4"/>
@@ -4113,7 +4113,7 @@
       <c r="Q12" s="12"/>
       <c r="R12" s="12"/>
       <c r="S12" s="8" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.35">
@@ -4151,7 +4151,7 @@
         <v>9</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M13" s="8"/>
       <c r="N13" s="4"/>
@@ -4160,7 +4160,7 @@
       <c r="Q13" s="12"/>
       <c r="R13" s="12"/>
       <c r="S13" s="8" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.35">
@@ -4198,7 +4198,7 @@
         <v>9</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M14" s="8"/>
       <c r="N14" s="4"/>
@@ -4207,7 +4207,7 @@
       <c r="Q14" s="12"/>
       <c r="R14" s="12"/>
       <c r="S14" s="8" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="15" spans="1:19" x14ac:dyDescent="0.35">
@@ -4233,7 +4233,7 @@
         <v>74</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I15" s="8" t="s">
         <v>539</v>
@@ -4245,7 +4245,7 @@
         <v>9</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="M15" s="8"/>
       <c r="N15" s="4"/>
@@ -4254,7 +4254,7 @@
       <c r="Q15" s="12"/>
       <c r="R15" s="12"/>
       <c r="S15" s="8" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="16" spans="1:19" x14ac:dyDescent="0.35">
@@ -4280,10 +4280,10 @@
         <v>78</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I16" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>539</v>
@@ -4301,7 +4301,7 @@
       <c r="Q16" s="12"/>
       <c r="R16" s="12"/>
       <c r="S16" s="8" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
     </row>
     <row r="17" spans="1:19" x14ac:dyDescent="0.35">
@@ -4330,7 +4330,7 @@
         <v>553</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J17" s="8" t="s">
         <v>539</v>
@@ -4348,7 +4348,7 @@
       <c r="Q17" s="12"/>
       <c r="R17" s="12"/>
       <c r="S17" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="18" spans="1:19" x14ac:dyDescent="0.35">
@@ -4393,7 +4393,7 @@
       <c r="Q18" s="12"/>
       <c r="R18" s="12"/>
       <c r="S18" s="8" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="19" spans="1:19" x14ac:dyDescent="0.35">
@@ -4403,7 +4403,7 @@
       <c r="B19" s="4" t="s">
         <v>535</v>
       </c>
-      <c r="C19" s="4">
+      <c r="C19" s="5">
         <v>18</v>
       </c>
       <c r="D19" s="4" t="s">
@@ -4422,7 +4422,7 @@
         <v>555</v>
       </c>
       <c r="I19" s="4" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J19" s="4" t="s">
         <v>539</v>
@@ -4440,7 +4440,7 @@
       <c r="Q19" s="12"/>
       <c r="R19" s="12"/>
       <c r="S19" s="8" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="20" spans="1:19" x14ac:dyDescent="0.35">
@@ -4485,7 +4485,7 @@
       <c r="Q20" s="12"/>
       <c r="R20" s="12"/>
       <c r="S20" s="8" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -4511,10 +4511,10 @@
         <v>98</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J21" s="8" t="s">
         <v>539</v>
@@ -4532,7 +4532,7 @@
       <c r="Q21" s="12"/>
       <c r="R21" s="12"/>
       <c r="S21" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.35">
@@ -4615,7 +4615,7 @@
         <v>9</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="M23" s="8"/>
       <c r="N23" s="4"/>
@@ -4624,7 +4624,7 @@
       <c r="Q23" s="12"/>
       <c r="R23" s="12"/>
       <c r="S23" s="8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="24" spans="1:19" x14ac:dyDescent="0.35">
@@ -4656,13 +4656,13 @@
         <v>539</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>560</v>
+        <v>711</v>
       </c>
       <c r="K24" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M24" s="8"/>
       <c r="N24" s="4"/>
@@ -4671,7 +4671,7 @@
       <c r="Q24" s="12"/>
       <c r="R24" s="12"/>
       <c r="S24" s="8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.35">
@@ -4742,7 +4742,7 @@
         <v>118</v>
       </c>
       <c r="H26" s="7" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>539</v>
@@ -4754,7 +4754,7 @@
         <v>9</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M26" s="8"/>
       <c r="N26" s="4"/>
@@ -4763,7 +4763,7 @@
       <c r="Q26" s="12"/>
       <c r="R26" s="12"/>
       <c r="S26" s="8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.35">
@@ -4789,10 +4789,10 @@
         <v>122</v>
       </c>
       <c r="H27" s="8" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J27" s="8" t="s">
         <v>539</v>
@@ -4810,7 +4810,7 @@
       <c r="Q27" s="12"/>
       <c r="R27" s="12"/>
       <c r="S27" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.35">
@@ -4836,7 +4836,7 @@
         <v>126</v>
       </c>
       <c r="H28" s="8" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I28" s="7" t="s">
         <v>537</v>
@@ -4855,7 +4855,7 @@
       <c r="Q28" s="12"/>
       <c r="R28" s="12"/>
       <c r="S28" s="8" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -4881,10 +4881,10 @@
         <v>130</v>
       </c>
       <c r="H29" s="8" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J29" s="8" t="s">
         <v>539</v>
@@ -4902,7 +4902,7 @@
       <c r="Q29" s="12"/>
       <c r="R29" s="12"/>
       <c r="S29" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.35">
@@ -4928,10 +4928,10 @@
         <v>134</v>
       </c>
       <c r="H30" s="8" t="s">
+        <v>561</v>
+      </c>
+      <c r="I30" s="8" t="s">
         <v>562</v>
-      </c>
-      <c r="I30" s="8" t="s">
-        <v>563</v>
       </c>
       <c r="J30" s="8" t="s">
         <v>539</v>
@@ -4940,7 +4940,7 @@
         <v>8</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M30" s="8"/>
       <c r="N30" s="4"/>
@@ -4949,7 +4949,7 @@
       <c r="Q30" s="12"/>
       <c r="R30" s="12"/>
       <c r="S30" s="8" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.35">
@@ -4975,7 +4975,7 @@
         <v>138</v>
       </c>
       <c r="H31" s="7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I31" s="7" t="s">
         <v>537</v>
@@ -4994,7 +4994,7 @@
       <c r="Q31" s="12"/>
       <c r="R31" s="12"/>
       <c r="S31" s="8" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.35">
@@ -5020,10 +5020,10 @@
         <v>142</v>
       </c>
       <c r="H32" s="7" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I32" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J32" s="8" t="s">
         <v>539</v>
@@ -5041,7 +5041,7 @@
       <c r="Q32" s="12"/>
       <c r="R32" s="12"/>
       <c r="S32" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.35">
@@ -5067,19 +5067,19 @@
         <v>146</v>
       </c>
       <c r="H33" s="7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I33" s="7" t="s">
         <v>539</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>560</v>
+        <v>711</v>
       </c>
       <c r="K33" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M33" s="8"/>
       <c r="N33" s="4"/>
@@ -5088,7 +5088,7 @@
       <c r="Q33" s="12"/>
       <c r="R33" s="12"/>
       <c r="S33" s="8" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.35">
@@ -5114,10 +5114,10 @@
         <v>150</v>
       </c>
       <c r="H34" s="8" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I34" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J34" s="8" t="s">
         <v>539</v>
@@ -5135,7 +5135,7 @@
       <c r="Q34" s="12"/>
       <c r="R34" s="12"/>
       <c r="S34" s="8" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="35" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -5161,10 +5161,10 @@
         <v>154</v>
       </c>
       <c r="H35" s="8" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I35" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J35" s="8" t="s">
         <v>539</v>
@@ -5182,7 +5182,7 @@
       <c r="Q35" s="12"/>
       <c r="R35" s="12"/>
       <c r="S35" s="8" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.35">
@@ -5253,10 +5253,10 @@
         <v>162</v>
       </c>
       <c r="H37" s="8" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I37" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J37" s="8" t="s">
         <v>539</v>
@@ -5274,7 +5274,7 @@
       <c r="Q37" s="12"/>
       <c r="R37" s="12"/>
       <c r="S37" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.35">
@@ -5364,7 +5364,7 @@
       <c r="Q39" s="12"/>
       <c r="R39" s="12"/>
       <c r="S39" s="7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="40" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -5390,10 +5390,10 @@
         <v>173</v>
       </c>
       <c r="H40" s="8" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I40" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J40" s="8" t="s">
         <v>539</v>
@@ -5411,7 +5411,7 @@
       <c r="Q40" s="12"/>
       <c r="R40" s="12"/>
       <c r="S40" s="8" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="41" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -5437,10 +5437,10 @@
         <v>177</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I41" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J41" s="8" t="s">
         <v>539</v>
@@ -5458,7 +5458,7 @@
       <c r="Q41" s="12"/>
       <c r="R41" s="12"/>
       <c r="S41" s="8" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -5484,10 +5484,10 @@
         <v>181</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I42" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J42" s="8" t="s">
         <v>539</v>
@@ -5505,7 +5505,7 @@
       <c r="Q42" s="12"/>
       <c r="R42" s="12"/>
       <c r="S42" s="8" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.35">
@@ -5576,10 +5576,10 @@
         <v>189</v>
       </c>
       <c r="H44" s="8" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I44" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J44" s="8" t="s">
         <v>539</v>
@@ -5597,7 +5597,7 @@
       <c r="Q44" s="12"/>
       <c r="R44" s="12"/>
       <c r="S44" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="45" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -5623,10 +5623,10 @@
         <v>193</v>
       </c>
       <c r="H45" s="8" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I45" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J45" s="8" t="s">
         <v>539</v>
@@ -5644,7 +5644,7 @@
       <c r="Q45" s="12"/>
       <c r="R45" s="12"/>
       <c r="S45" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="46" spans="1:19" x14ac:dyDescent="0.35">
@@ -5715,7 +5715,7 @@
         <v>201</v>
       </c>
       <c r="H47" s="13" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I47" s="8" t="s">
         <v>544</v>
@@ -5727,7 +5727,7 @@
         <v>8</v>
       </c>
       <c r="L47" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M47" s="8"/>
       <c r="N47" s="4"/>
@@ -5736,7 +5736,7 @@
       <c r="Q47" s="12"/>
       <c r="R47" s="12"/>
       <c r="S47" s="8" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="48" spans="1:19" x14ac:dyDescent="0.35">
@@ -5852,10 +5852,10 @@
         <v>213</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I50" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J50" s="8" t="s">
         <v>539</v>
@@ -5873,7 +5873,7 @@
       <c r="Q50" s="12"/>
       <c r="R50" s="12"/>
       <c r="S50" s="8" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="51" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -5899,10 +5899,10 @@
         <v>217</v>
       </c>
       <c r="H51" s="8" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J51" s="8" t="s">
         <v>539</v>
@@ -5920,7 +5920,7 @@
       <c r="Q51" s="12"/>
       <c r="R51" s="12"/>
       <c r="S51" s="8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="52" spans="1:19" x14ac:dyDescent="0.35">
@@ -5991,7 +5991,7 @@
         <v>225</v>
       </c>
       <c r="H53" s="7" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I53" s="7" t="s">
         <v>537</v>
@@ -6010,7 +6010,7 @@
       <c r="Q53" s="12"/>
       <c r="R53" s="12"/>
       <c r="S53" s="8" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="54" spans="1:19" x14ac:dyDescent="0.35">
@@ -6081,7 +6081,7 @@
         <v>233</v>
       </c>
       <c r="H55" s="8" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I55" s="7" t="s">
         <v>537</v>
@@ -6100,7 +6100,7 @@
       <c r="Q55" s="12"/>
       <c r="R55" s="12"/>
       <c r="S55" s="8" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="56" spans="1:19" x14ac:dyDescent="0.35">
@@ -6126,7 +6126,7 @@
         <v>237</v>
       </c>
       <c r="H56" s="8" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I56" s="8" t="s">
         <v>547</v>
@@ -6138,7 +6138,7 @@
         <v>8</v>
       </c>
       <c r="L56" s="7" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M56" s="8"/>
       <c r="N56" s="4"/>
@@ -6147,7 +6147,7 @@
       <c r="Q56" s="12"/>
       <c r="R56" s="12"/>
       <c r="S56" s="8" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="57" spans="1:19" x14ac:dyDescent="0.35">
@@ -6261,7 +6261,7 @@
         <v>249</v>
       </c>
       <c r="H59" s="8" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I59" s="8" t="s">
         <v>544</v>
@@ -6273,7 +6273,7 @@
         <v>8</v>
       </c>
       <c r="L59" s="7" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M59" s="7"/>
       <c r="N59" s="4"/>
@@ -6282,7 +6282,7 @@
       <c r="Q59" s="12"/>
       <c r="R59" s="12"/>
       <c r="S59" s="8" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="60" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -6308,7 +6308,7 @@
         <v>253</v>
       </c>
       <c r="H60" s="8" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I60" s="7" t="s">
         <v>537</v>
@@ -6327,7 +6327,7 @@
       <c r="Q60" s="12"/>
       <c r="R60" s="12"/>
       <c r="S60" s="8" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="61" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -6353,7 +6353,7 @@
         <v>257</v>
       </c>
       <c r="H61" s="7" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I61" s="7" t="s">
         <v>537</v>
@@ -6372,7 +6372,7 @@
       <c r="Q61" s="12"/>
       <c r="R61" s="12"/>
       <c r="S61" s="8" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="62" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -6398,19 +6398,19 @@
         <v>261</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I62" s="10" t="s">
         <v>539</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K62" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L62" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M62" s="8"/>
       <c r="N62" s="4"/>
@@ -6419,7 +6419,7 @@
       <c r="Q62" s="12"/>
       <c r="R62" s="12"/>
       <c r="S62" s="8" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="63" spans="1:19" x14ac:dyDescent="0.35">
@@ -6464,7 +6464,7 @@
       <c r="Q63" s="12"/>
       <c r="R63" s="12"/>
       <c r="S63" s="7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="64" spans="1:19" x14ac:dyDescent="0.35">
@@ -6490,10 +6490,10 @@
         <v>269</v>
       </c>
       <c r="H64" s="8" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I64" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J64" s="8" t="s">
         <v>539</v>
@@ -6511,7 +6511,7 @@
       <c r="Q64" s="12"/>
       <c r="R64" s="12"/>
       <c r="S64" s="8" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="65" spans="1:19" x14ac:dyDescent="0.35">
@@ -6627,10 +6627,10 @@
         <v>281</v>
       </c>
       <c r="H67" s="7" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I67" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J67" s="8" t="s">
         <v>539</v>
@@ -6648,7 +6648,7 @@
       <c r="Q67" s="12"/>
       <c r="R67" s="12"/>
       <c r="S67" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="68" spans="1:19" x14ac:dyDescent="0.35">
@@ -6719,19 +6719,19 @@
         <v>289</v>
       </c>
       <c r="H69" s="7" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I69" s="7" t="s">
         <v>539</v>
       </c>
       <c r="J69" s="7" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K69" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L69" s="7" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="M69" s="8"/>
       <c r="N69" s="4"/>
@@ -6740,7 +6740,7 @@
       <c r="Q69" s="12"/>
       <c r="R69" s="12"/>
       <c r="S69" s="8" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="70" spans="1:19" x14ac:dyDescent="0.35">
@@ -6785,7 +6785,7 @@
       <c r="Q70" s="12"/>
       <c r="R70" s="12"/>
       <c r="S70" s="7" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="71" spans="1:19" x14ac:dyDescent="0.35">
@@ -6811,10 +6811,10 @@
         <v>297</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J71" s="8" t="s">
         <v>539</v>
@@ -6832,7 +6832,7 @@
       <c r="Q71" s="12"/>
       <c r="R71" s="12"/>
       <c r="S71" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="72" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -6858,10 +6858,10 @@
         <v>301</v>
       </c>
       <c r="H72" s="8" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J72" s="8" t="s">
         <v>539</v>
@@ -6879,7 +6879,7 @@
       <c r="Q72" s="12"/>
       <c r="R72" s="12"/>
       <c r="S72" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="73" spans="1:19" x14ac:dyDescent="0.35">
@@ -6905,7 +6905,7 @@
         <v>305</v>
       </c>
       <c r="H73" s="8" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I73" s="7" t="s">
         <v>537</v>
@@ -6924,7 +6924,7 @@
       <c r="Q73" s="12"/>
       <c r="R73" s="12"/>
       <c r="S73" s="8" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="74" spans="1:19" x14ac:dyDescent="0.35">
@@ -6995,10 +6995,10 @@
         <v>313</v>
       </c>
       <c r="H75" s="8" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I75" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J75" s="8" t="s">
         <v>539</v>
@@ -7016,7 +7016,7 @@
       <c r="Q75" s="12"/>
       <c r="R75" s="12"/>
       <c r="S75" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="76" spans="1:19" x14ac:dyDescent="0.35">
@@ -7087,7 +7087,7 @@
         <v>321</v>
       </c>
       <c r="H77" s="8" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I77" s="7" t="s">
         <v>537</v>
@@ -7106,7 +7106,7 @@
       <c r="Q77" s="12"/>
       <c r="R77" s="12"/>
       <c r="S77" s="8" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="78" spans="1:19" x14ac:dyDescent="0.35">
@@ -7132,7 +7132,7 @@
         <v>325</v>
       </c>
       <c r="H78" s="7" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I78" s="7" t="s">
         <v>537</v>
@@ -7151,7 +7151,7 @@
       <c r="Q78" s="12"/>
       <c r="R78" s="12"/>
       <c r="S78" s="8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="79" spans="1:19" x14ac:dyDescent="0.35">
@@ -7177,7 +7177,7 @@
         <v>329</v>
       </c>
       <c r="H79" s="7" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I79" s="7" t="s">
         <v>539</v>
@@ -7189,7 +7189,7 @@
         <v>9</v>
       </c>
       <c r="L79" s="7" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M79" s="8"/>
       <c r="N79" s="4"/>
@@ -7198,7 +7198,7 @@
       <c r="Q79" s="12"/>
       <c r="R79" s="12"/>
       <c r="S79" s="8" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="80" spans="1:19" x14ac:dyDescent="0.35">
@@ -7224,19 +7224,19 @@
         <v>333</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I80" s="7" t="s">
         <v>539</v>
       </c>
       <c r="J80" s="7" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="K80" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L80" s="7" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M80" s="8"/>
       <c r="N80" s="4"/>
@@ -7245,7 +7245,7 @@
       <c r="Q80" s="12"/>
       <c r="R80" s="12"/>
       <c r="S80" s="8" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="81" spans="1:19" x14ac:dyDescent="0.35">
@@ -7316,19 +7316,19 @@
         <v>341</v>
       </c>
       <c r="H82" s="8" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I82" s="8" t="s">
         <v>539</v>
       </c>
       <c r="J82" s="8" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K82" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L82" s="7" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M82" s="8"/>
       <c r="N82" s="4"/>
@@ -7337,7 +7337,7 @@
       <c r="Q82" s="12"/>
       <c r="R82" s="12"/>
       <c r="S82" s="8" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="83" spans="1:19" x14ac:dyDescent="0.35">
@@ -7408,7 +7408,7 @@
         <v>349</v>
       </c>
       <c r="H84" s="7" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I84" s="15" t="s">
         <v>539</v>
@@ -7420,7 +7420,7 @@
         <v>9</v>
       </c>
       <c r="L84" s="7" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M84" s="8"/>
       <c r="N84" s="4"/>
@@ -7429,7 +7429,7 @@
       <c r="Q84" s="12"/>
       <c r="R84" s="12"/>
       <c r="S84" s="8" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="85" spans="1:19" x14ac:dyDescent="0.35">
@@ -7474,7 +7474,7 @@
       <c r="Q85" s="12"/>
       <c r="R85" s="12"/>
       <c r="S85" s="7" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="86" spans="1:19" x14ac:dyDescent="0.35">
@@ -7500,10 +7500,10 @@
         <v>357</v>
       </c>
       <c r="H86" s="8" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I86" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J86" s="8" t="s">
         <v>539</v>
@@ -7521,7 +7521,7 @@
       <c r="Q86" s="12"/>
       <c r="R86" s="12"/>
       <c r="S86" s="8" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="87" spans="1:19" x14ac:dyDescent="0.35">
@@ -7656,7 +7656,7 @@
       <c r="Q89" s="12"/>
       <c r="R89" s="12"/>
       <c r="S89" s="7" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="90" spans="1:19" x14ac:dyDescent="0.35">
@@ -7772,7 +7772,7 @@
         <v>381</v>
       </c>
       <c r="H92" s="8" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I92" s="7" t="s">
         <v>537</v>
@@ -7791,7 +7791,7 @@
       <c r="Q92" s="12"/>
       <c r="R92" s="12"/>
       <c r="S92" s="8" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="93" spans="1:19" x14ac:dyDescent="0.35">
@@ -7862,7 +7862,7 @@
         <v>389</v>
       </c>
       <c r="H94" s="8" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I94" s="8" t="s">
         <v>545</v>
@@ -7874,7 +7874,7 @@
         <v>8</v>
       </c>
       <c r="L94" s="7" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="M94" s="8"/>
       <c r="N94" s="4"/>
@@ -7883,7 +7883,7 @@
       <c r="Q94" s="12"/>
       <c r="R94" s="12"/>
       <c r="S94" s="8" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="95" spans="1:19" x14ac:dyDescent="0.35">
@@ -7954,7 +7954,7 @@
         <v>397</v>
       </c>
       <c r="H96" s="8" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I96" s="8" t="s">
         <v>539</v>
@@ -7966,7 +7966,7 @@
         <v>9</v>
       </c>
       <c r="L96" s="7" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M96" s="8"/>
       <c r="N96" s="4"/>
@@ -7975,7 +7975,7 @@
       <c r="Q96" s="12"/>
       <c r="R96" s="12"/>
       <c r="S96" s="8" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="97" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -8001,10 +8001,10 @@
         <v>401</v>
       </c>
       <c r="H97" s="7" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I97" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J97" s="8" t="s">
         <v>539</v>
@@ -8022,7 +8022,7 @@
       <c r="Q97" s="12"/>
       <c r="R97" s="12"/>
       <c r="S97" s="8" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="98" spans="1:19" x14ac:dyDescent="0.35">
@@ -8048,7 +8048,7 @@
         <v>405</v>
       </c>
       <c r="H98" s="7" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I98" s="7" t="s">
         <v>537</v>
@@ -8067,7 +8067,7 @@
       <c r="Q98" s="12"/>
       <c r="R98" s="12"/>
       <c r="S98" s="8" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="17.5" x14ac:dyDescent="0.35">
@@ -8093,19 +8093,19 @@
         <v>409</v>
       </c>
       <c r="H99" s="8" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I99" s="8" t="s">
         <v>539</v>
       </c>
-      <c r="J99" s="8" t="s">
-        <v>560</v>
+      <c r="J99" s="7" t="s">
+        <v>711</v>
       </c>
       <c r="K99" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L99" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M99" s="8"/>
       <c r="N99" s="4"/>
@@ -8114,7 +8114,7 @@
       <c r="Q99" s="12"/>
       <c r="R99" s="12"/>
       <c r="S99" s="8" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="100" spans="1:19" x14ac:dyDescent="0.35">
@@ -8146,13 +8146,13 @@
         <v>539</v>
       </c>
       <c r="J100" s="7" t="s">
-        <v>560</v>
+        <v>711</v>
       </c>
       <c r="K100" s="8" t="s">
         <v>9</v>
       </c>
       <c r="L100" s="7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="M100" s="8"/>
       <c r="N100" s="4"/>
@@ -8161,7 +8161,7 @@
       <c r="Q100" s="12"/>
       <c r="R100" s="12"/>
       <c r="S100" s="8" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="101" spans="1:19" x14ac:dyDescent="0.35">
@@ -8232,7 +8232,7 @@
         <v>421</v>
       </c>
       <c r="H102" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I102" s="7" t="s">
         <v>537</v>
@@ -8251,7 +8251,7 @@
       <c r="Q102" s="12"/>
       <c r="R102" s="12"/>
       <c r="S102" s="7" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="103" spans="1:19" x14ac:dyDescent="0.35">
@@ -8296,7 +8296,7 @@
       <c r="Q103" s="12"/>
       <c r="R103" s="12"/>
       <c r="S103" s="7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="104" spans="1:19" x14ac:dyDescent="0.35">
@@ -8322,10 +8322,10 @@
         <v>428</v>
       </c>
       <c r="H104" s="8" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I104" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J104" s="8" t="s">
         <v>539</v>
@@ -8343,7 +8343,7 @@
       <c r="Q104" s="12"/>
       <c r="R104" s="12"/>
       <c r="S104" s="8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="105" spans="1:19" x14ac:dyDescent="0.35">
@@ -8369,7 +8369,7 @@
         <v>432</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I105" s="7" t="s">
         <v>537</v>
@@ -8388,7 +8388,7 @@
       <c r="Q105" s="12"/>
       <c r="R105" s="12"/>
       <c r="S105" s="8" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="106" spans="1:19" x14ac:dyDescent="0.35">
@@ -8414,10 +8414,10 @@
         <v>436</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I106" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J106" s="8" t="s">
         <v>539</v>
@@ -8435,7 +8435,7 @@
       <c r="Q106" s="12"/>
       <c r="R106" s="12"/>
       <c r="S106" s="8" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="107" spans="1:19" x14ac:dyDescent="0.35">
@@ -8461,7 +8461,7 @@
         <v>439</v>
       </c>
       <c r="H107" s="13" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I107" s="7" t="s">
         <v>537</v>
@@ -8480,7 +8480,7 @@
       <c r="Q107" s="12"/>
       <c r="R107" s="12"/>
       <c r="S107" s="8" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="108" spans="1:19" x14ac:dyDescent="0.35">
@@ -8506,7 +8506,7 @@
         <v>443</v>
       </c>
       <c r="H108" s="8" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I108" s="7" t="s">
         <v>537</v>
@@ -8525,7 +8525,7 @@
       <c r="Q108" s="12"/>
       <c r="R108" s="12"/>
       <c r="S108" s="8" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="109" spans="1:19" x14ac:dyDescent="0.35">
@@ -8551,10 +8551,10 @@
         <v>447</v>
       </c>
       <c r="H109" s="8" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J109" s="8" t="s">
         <v>539</v>
@@ -8572,7 +8572,7 @@
       <c r="Q109" s="12"/>
       <c r="R109" s="12"/>
       <c r="S109" s="8" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="110" spans="1:19" x14ac:dyDescent="0.35">
@@ -8598,10 +8598,10 @@
         <v>451</v>
       </c>
       <c r="H110" s="7" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I110" s="8" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="J110" s="8" t="s">
         <v>539</v>
@@ -8619,7 +8619,7 @@
       <c r="Q110" s="12"/>
       <c r="R110" s="12"/>
       <c r="S110" s="8" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="111" spans="1:19" x14ac:dyDescent="0.35">
